--- a/runtime/export/jkxm_fxfpwcl.xlsx
+++ b/runtime/export/jkxm_fxfpwcl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>纳税人识别号</t>
   </si>
@@ -29,7 +29,16 @@
     <t>发票号码</t>
   </si>
   <si>
-    <t>核实人员</t>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>税额</t>
+  </si>
+  <si>
+    <t>风险类型</t>
+  </si>
+  <si>
+    <t>认定/登记日期</t>
   </si>
 </sst>
 </file>
@@ -38,9 +47,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -58,6 +67,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -65,9 +90,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,115 +196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,25 +226,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,151 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +442,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -451,38 +490,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,25 +526,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1024,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1023,17 +1032,20 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="31.8888888888889" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.3333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.5555555555556" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.8888888888889" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.2222222222222" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.8888888888889" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.8888888888889" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="26.7777777777778" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.3333333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.3333333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.6666666666667" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.1" customHeight="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="17.1" customHeight="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1049,6 +1061,15 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>

--- a/runtime/export/jkxm_fxfpwcl.xlsx
+++ b/runtime/export/jkxm_fxfpwcl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection lockStructure="1"/>
+  <workbookProtection workbookPassword="EC63" lockStructure="1"/>
   <bookViews>
     <workbookView windowWidth="21288" windowHeight="10535"/>
   </bookViews>
@@ -67,16 +67,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -84,58 +122,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,56 +167,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,12 +226,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -244,163 +364,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,36 +442,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -490,17 +460,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,16 +517,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1072,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection password="EC63" sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/runtime/export/jkxm_fxfpwcl.xlsx
+++ b/runtime/export/jkxm_fxfpwcl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection workbookPassword="EC63" lockStructure="1"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView windowWidth="21288" windowHeight="10535"/>
   </bookViews>
@@ -45,11 +45,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -689,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,10 +705,17 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1041,38 +1049,38 @@
     <col min="5" max="5" width="26.7777777777778" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.3333333333333" style="3" customWidth="1"/>
     <col min="7" max="7" width="19.3333333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.6666666666667" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.6666666666667" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17.1" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="EC63" sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
